--- a/all_annotated/BLDR_Q3_2018_3.xlsx
+++ b/all_annotated/BLDR_Q3_2018_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vm056257\Downloads\Working\PEBU\ML\SubjECTive-QA\Chandrashekaran-annotations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/all_annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC99F222-AC4C-4992-97B9-A565BA66D5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA02011-0B91-9E4E-8722-0823E78EAA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="4140" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="95">
   <si>
     <t>Asker</t>
   </si>
@@ -174,13 +174,6 @@
   </si>
   <si>
     <t>Matt McCall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thanks. Good morning, everybody.
-</t>
-  </si>
-  <si>
-    <t>Hi, Matt.</t>
   </si>
   <si>
     <t xml:space="preserve">So, maybe talk about pricing for a second. You mentioned some pricing tools. The 11 points of price is actually a little better than I think you expected in the quarter, definitely better than we modeled. And then the Q4 guide even seems a tad better than we had expected. So, are the pricing tools helping there? Is there something else that's going on? Is there any change, or is this just kind of where you thought it would be?
@@ -284,9 +277,6 @@
     <t>Yeah. I don't think there's a material change.</t>
   </si>
   <si>
-    <t>Yeah. As I said in the prepared comments, that's largely in the upper Midwest, the Ag region of the country where the tariff wars that are going on have really started impacting some of the farmers and made them cautious about spending. They're a big part of the business up in that part of the country. And to a lesser degree Alaska, although Alaska is performing a little better than last year, still relative to national numbers that you see in R&amp;R, still underperforming a bit. So it's primarily those two markets for us.</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Got it. Thanks. Sorry I missed that. And then with free cash flow, the target, $170 million to $190 million, expecting to come in at the low-end, I think that's what you guys said last quarter, too. But just wondering what was the driver of coming into the low-end. I understand the earlier part of the year when you had a big working capital draw with the higher lumber, but I would have thought it might be more of a tailwind with the commodity coming down and maybe might catch a little more benefit in the 4Q. Any just commentary around the direction there of going towards the low-end?</t>
   </si>
@@ -341,13 +331,6 @@
   </si>
   <si>
     <t>Well, it's largely the Western part of the country where we feel like we're under-represented in our footprint. I'd rather not disclose which particular markets we're talking about this for competitive reasons. But I would say a lot of it's largely the legacy ProBuild footprint where those products were under-represented.</t>
-  </si>
-  <si>
-    <t>Great. Thank you very much.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So the one point I want to clarify to Alex's question earlier about the days, he asked the question and I was agreeing that we have a difference in days, but I've been pointed out that we think he might have said less days. It's actually more days in the fourth quarter. In 2018, we lost a day of sales in Q1, and we'll gain a day in Q4, full-year flat. So, just a clarifying point.
-</t>
   </si>
 </sst>
 </file>
@@ -366,6 +349,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -713,29 +697,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="88.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="88.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="88.140625" style="2"/>
+    <col min="10" max="10" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="88.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="240" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -799,7 +783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -831,7 +815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -863,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="160" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -895,7 +879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="160" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -927,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -959,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -991,7 +975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1023,7 +1007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1055,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1087,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -1119,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -1151,7 +1135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -1183,7 +1167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1215,7 +1199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -1247,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -1279,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="128" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -1293,10 +1277,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -1305,13 +1289,13 @@
         <v>1</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -1331,10 +1315,10 @@
         <v>2</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
         <v>2</v>
@@ -1343,12 +1327,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="160" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>53</v>
@@ -1363,10 +1347,10 @@
         <v>2</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="2">
         <v>2</v>
@@ -1375,18 +1359,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
@@ -1395,10 +1379,10 @@
         <v>2</v>
       </c>
       <c r="G21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
         <v>2</v>
@@ -1407,44 +1391,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>2</v>
-      </c>
-      <c r="J22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>61</v>
@@ -1462,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2">
         <v>2</v>
@@ -1471,12 +1455,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>63</v>
@@ -1491,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
@@ -1503,12 +1487,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>65</v>
@@ -1523,7 +1507,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2">
         <v>1</v>
@@ -1535,62 +1519,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="2">
-        <v>2</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2">
-        <v>2</v>
-      </c>
-      <c r="J26" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
       </c>
       <c r="F27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="2">
         <v>2</v>
@@ -1599,9 +1583,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="128" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
@@ -1619,10 +1603,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
         <v>2</v>
@@ -1631,47 +1615,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>2</v>
-      </c>
-      <c r="J29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>75</v>
@@ -1686,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
         <v>2</v>
@@ -1695,41 +1679,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>2</v>
-      </c>
-      <c r="J31" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>11</v>
@@ -1750,27 +1734,30 @@
         <v>1</v>
       </c>
       <c r="H32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
@@ -1785,114 +1772,114 @@
         <v>1</v>
       </c>
       <c r="J33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2</v>
+      </c>
+      <c r="J35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2</v>
-      </c>
-      <c r="F34" s="2">
-        <v>2</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2">
-        <v>2</v>
-      </c>
-      <c r="I34" s="2">
-        <v>2</v>
-      </c>
-      <c r="J34" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="2">
-        <v>2</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2">
-        <v>2</v>
-      </c>
-      <c r="J36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>89</v>
@@ -1916,12 +1903,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>90</v>
@@ -1930,36 +1917,36 @@
         <v>91</v>
       </c>
       <c r="E38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E39" s="2">
         <v>2</v>
@@ -1977,102 +1964,6 @@
         <v>2</v>
       </c>
       <c r="J39" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="2">
-        <v>2</v>
-      </c>
-      <c r="F41" s="2">
-        <v>2</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2">
-        <v>2</v>
-      </c>
-      <c r="I41" s="2">
-        <v>2</v>
-      </c>
-      <c r="J41" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="2">
-        <v>2</v>
-      </c>
-      <c r="F42" s="2">
-        <v>2</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2">
-        <v>2</v>
-      </c>
-      <c r="J42" s="2">
         <v>2</v>
       </c>
     </row>
